--- a/natmiOut/OldD7/LR-pairs_lrc2p/Jag1-Notch4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Jag1-Notch4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.4833968167048</v>
+        <v>16.12468433333333</v>
       </c>
       <c r="H2">
-        <v>15.4833968167048</v>
+        <v>48.374053</v>
       </c>
       <c r="I2">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206278</v>
       </c>
       <c r="J2">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206279</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.015633779984</v>
+        <v>46.05975733333333</v>
       </c>
       <c r="N2">
-        <v>45.015633779984</v>
+        <v>138.179272</v>
       </c>
       <c r="O2">
-        <v>0.911371540619546</v>
+        <v>0.8970651351272991</v>
       </c>
       <c r="P2">
-        <v>0.911371540619546</v>
+        <v>0.897065135127299</v>
       </c>
       <c r="Q2">
-        <v>696.9949207709534</v>
+        <v>742.699047469935</v>
       </c>
       <c r="R2">
-        <v>696.9949207709534</v>
+        <v>6684.291427229416</v>
       </c>
       <c r="S2">
-        <v>0.3374543447878937</v>
+        <v>0.265126762398009</v>
       </c>
       <c r="T2">
-        <v>0.3374543447878937</v>
+        <v>0.265126762398009</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.4833968167048</v>
+        <v>16.12468433333333</v>
       </c>
       <c r="H3">
-        <v>15.4833968167048</v>
+        <v>48.374053</v>
       </c>
       <c r="I3">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206278</v>
       </c>
       <c r="J3">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206279</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.51754008604994</v>
+        <v>2.770761666666667</v>
       </c>
       <c r="N3">
-        <v>2.51754008604994</v>
+        <v>8.312284999999999</v>
       </c>
       <c r="O3">
-        <v>0.05096927876232632</v>
+        <v>0.05396367312415441</v>
       </c>
       <c r="P3">
-        <v>0.05096927876232632</v>
+        <v>0.0539636731241544</v>
       </c>
       <c r="Q3">
-        <v>38.98007215427237</v>
+        <v>44.67765723790055</v>
       </c>
       <c r="R3">
-        <v>38.98007215427237</v>
+        <v>402.098915141105</v>
       </c>
       <c r="S3">
-        <v>0.01887243983651277</v>
+        <v>0.01594891316390445</v>
       </c>
       <c r="T3">
-        <v>0.01887243983651277</v>
+        <v>0.01594891316390445</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.4833968167048</v>
+        <v>16.12468433333333</v>
       </c>
       <c r="H4">
-        <v>15.4833968167048</v>
+        <v>48.374053</v>
       </c>
       <c r="I4">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206278</v>
       </c>
       <c r="J4">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206279</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.43893951667141</v>
+        <v>1.802173666666667</v>
       </c>
       <c r="N4">
-        <v>1.43893951667141</v>
+        <v>5.406521</v>
       </c>
       <c r="O4">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="P4">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="Q4">
-        <v>22.27967153186086</v>
+        <v>29.05948148884588</v>
       </c>
       <c r="R4">
-        <v>22.27967153186086</v>
+        <v>261.535333399613</v>
       </c>
       <c r="S4">
-        <v>0.01078683894935338</v>
+        <v>0.01037357765618309</v>
       </c>
       <c r="T4">
-        <v>0.01078683894935338</v>
+        <v>0.01037357765618309</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.4833968167048</v>
+        <v>16.12468433333333</v>
       </c>
       <c r="H5">
-        <v>15.4833968167048</v>
+        <v>48.374053</v>
       </c>
       <c r="I5">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206278</v>
       </c>
       <c r="J5">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206279</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.421171105180447</v>
+        <v>0.7122493333333333</v>
       </c>
       <c r="N5">
-        <v>0.421171105180447</v>
+        <v>2.136748</v>
       </c>
       <c r="O5">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="P5">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="Q5">
-        <v>6.521159349238975</v>
+        <v>11.48479566662711</v>
       </c>
       <c r="R5">
-        <v>6.521159349238975</v>
+        <v>103.363160999644</v>
       </c>
       <c r="S5">
-        <v>0.003157259098847931</v>
+        <v>0.004099812302531315</v>
       </c>
       <c r="T5">
-        <v>0.003157259098847931</v>
+        <v>0.004099812302531316</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.6238428604356</v>
+        <v>14.68975</v>
       </c>
       <c r="H6">
-        <v>14.6238428604356</v>
+        <v>44.06925</v>
       </c>
       <c r="I6">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="J6">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.015633779984</v>
+        <v>46.05975733333333</v>
       </c>
       <c r="N6">
-        <v>45.015633779984</v>
+        <v>138.179272</v>
       </c>
       <c r="O6">
-        <v>0.911371540619546</v>
+        <v>0.8970651351272991</v>
       </c>
       <c r="P6">
-        <v>0.911371540619546</v>
+        <v>0.897065135127299</v>
       </c>
       <c r="Q6">
-        <v>658.3015546614026</v>
+        <v>676.6063202873332</v>
       </c>
       <c r="R6">
-        <v>658.3015546614026</v>
+        <v>6089.456882586</v>
       </c>
       <c r="S6">
-        <v>0.318720715432756</v>
+        <v>0.2415331536063033</v>
       </c>
       <c r="T6">
-        <v>0.318720715432756</v>
+        <v>0.2415331536063033</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.6238428604356</v>
+        <v>14.68975</v>
       </c>
       <c r="H7">
-        <v>14.6238428604356</v>
+        <v>44.06925</v>
       </c>
       <c r="I7">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="J7">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.51754008604994</v>
+        <v>2.770761666666667</v>
       </c>
       <c r="N7">
-        <v>2.51754008604994</v>
+        <v>8.312284999999999</v>
       </c>
       <c r="O7">
-        <v>0.05096927876232632</v>
+        <v>0.05396367312415441</v>
       </c>
       <c r="P7">
-        <v>0.05096927876232632</v>
+        <v>0.0539636731241544</v>
       </c>
       <c r="Q7">
-        <v>36.81611061324184</v>
+        <v>40.70179619291666</v>
       </c>
       <c r="R7">
-        <v>36.81611061324184</v>
+        <v>366.31616573625</v>
       </c>
       <c r="S7">
-        <v>0.01782474464934134</v>
+        <v>0.01452962069248976</v>
       </c>
       <c r="T7">
-        <v>0.01782474464934134</v>
+        <v>0.01452962069248976</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.6238428604356</v>
+        <v>14.68975</v>
       </c>
       <c r="H8">
-        <v>14.6238428604356</v>
+        <v>44.06925</v>
       </c>
       <c r="I8">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="J8">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.43893951667141</v>
+        <v>1.802173666666667</v>
       </c>
       <c r="N8">
-        <v>1.43893951667141</v>
+        <v>5.406521</v>
       </c>
       <c r="O8">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="P8">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="Q8">
-        <v>21.04282537747385</v>
+        <v>26.47348061991666</v>
       </c>
       <c r="R8">
-        <v>21.04282537747385</v>
+        <v>238.26132557925</v>
       </c>
       <c r="S8">
-        <v>0.01018801233499237</v>
+        <v>0.009450433833293784</v>
       </c>
       <c r="T8">
-        <v>0.01018801233499237</v>
+        <v>0.009450433833293784</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.6238428604356</v>
+        <v>14.68975</v>
       </c>
       <c r="H9">
-        <v>14.6238428604356</v>
+        <v>44.06925</v>
       </c>
       <c r="I9">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="J9">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.421171105180447</v>
+        <v>0.7122493333333333</v>
       </c>
       <c r="N9">
-        <v>0.421171105180447</v>
+        <v>2.136748</v>
       </c>
       <c r="O9">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="P9">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="Q9">
-        <v>6.159140059514851</v>
+        <v>10.46276464433333</v>
       </c>
       <c r="R9">
-        <v>6.159140059514851</v>
+        <v>94.16488179899999</v>
       </c>
       <c r="S9">
-        <v>0.002981985250253302</v>
+        <v>0.003734970342744036</v>
       </c>
       <c r="T9">
-        <v>0.002981985250253302</v>
+        <v>0.003734970342744036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.80796346945351</v>
+        <v>1.967860666666667</v>
       </c>
       <c r="H10">
-        <v>1.80796346945351</v>
+        <v>5.903582</v>
       </c>
       <c r="I10">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="J10">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.015633779984</v>
+        <v>46.05975733333333</v>
       </c>
       <c r="N10">
-        <v>45.015633779984</v>
+        <v>138.179272</v>
       </c>
       <c r="O10">
-        <v>0.911371540619546</v>
+        <v>0.8970651351272991</v>
       </c>
       <c r="P10">
-        <v>0.911371540619546</v>
+        <v>0.897065135127299</v>
       </c>
       <c r="Q10">
-        <v>81.38662142850851</v>
+        <v>90.63918477247822</v>
       </c>
       <c r="R10">
-        <v>81.38662142850851</v>
+        <v>815.752662952304</v>
       </c>
       <c r="S10">
-        <v>0.03940382948311756</v>
+        <v>0.03235613898655883</v>
       </c>
       <c r="T10">
-        <v>0.03940382948311756</v>
+        <v>0.03235613898655882</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.80796346945351</v>
+        <v>1.967860666666667</v>
       </c>
       <c r="H11">
-        <v>1.80796346945351</v>
+        <v>5.903582</v>
       </c>
       <c r="I11">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="J11">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.51754008604994</v>
+        <v>2.770761666666667</v>
       </c>
       <c r="N11">
-        <v>2.51754008604994</v>
+        <v>8.312284999999999</v>
       </c>
       <c r="O11">
-        <v>0.05096927876232632</v>
+        <v>0.05396367312415441</v>
       </c>
       <c r="P11">
-        <v>0.05096927876232632</v>
+        <v>0.0539636731241544</v>
       </c>
       <c r="Q11">
-        <v>4.551620508463138</v>
+        <v>5.452472900541111</v>
       </c>
       <c r="R11">
-        <v>4.551620508463138</v>
+        <v>49.07225610486999</v>
       </c>
       <c r="S11">
-        <v>0.002203694848604666</v>
+        <v>0.001946409507468588</v>
       </c>
       <c r="T11">
-        <v>0.002203694848604666</v>
+        <v>0.001946409507468588</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.80796346945351</v>
+        <v>1.967860666666667</v>
       </c>
       <c r="H12">
-        <v>1.80796346945351</v>
+        <v>5.903582</v>
       </c>
       <c r="I12">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="J12">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.43893951667141</v>
+        <v>1.802173666666667</v>
       </c>
       <c r="N12">
-        <v>1.43893951667141</v>
+        <v>5.406521</v>
       </c>
       <c r="O12">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="P12">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="Q12">
-        <v>2.601550080895</v>
+        <v>3.546426673135778</v>
       </c>
       <c r="R12">
-        <v>2.601550080895</v>
+        <v>31.917840058222</v>
       </c>
       <c r="S12">
-        <v>0.001259556349435451</v>
+        <v>0.001265994113138395</v>
       </c>
       <c r="T12">
-        <v>0.001259556349435451</v>
+        <v>0.001265994113138395</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.80796346945351</v>
+        <v>1.967860666666667</v>
       </c>
       <c r="H13">
-        <v>1.80796346945351</v>
+        <v>5.903582</v>
       </c>
       <c r="I13">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="J13">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.421171105180447</v>
+        <v>0.7122493333333333</v>
       </c>
       <c r="N13">
-        <v>0.421171105180447</v>
+        <v>2.136748</v>
       </c>
       <c r="O13">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="P13">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="Q13">
-        <v>0.7614619725556101</v>
+        <v>1.401607447926222</v>
       </c>
       <c r="R13">
-        <v>0.7614619725556101</v>
+        <v>12.614467031336</v>
       </c>
       <c r="S13">
-        <v>0.00036866646136449</v>
+        <v>0.0005003421588966802</v>
       </c>
       <c r="T13">
-        <v>0.00036866646136449</v>
+        <v>0.0005003421588966801</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.9012008464664</v>
+        <v>21.77610566666667</v>
       </c>
       <c r="H14">
-        <v>9.9012008464664</v>
+        <v>65.328317</v>
       </c>
       <c r="I14">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="J14">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.015633779984</v>
+        <v>46.05975733333333</v>
       </c>
       <c r="N14">
-        <v>45.015633779984</v>
+        <v>138.179272</v>
       </c>
       <c r="O14">
-        <v>0.911371540619546</v>
+        <v>0.8970651351272991</v>
       </c>
       <c r="P14">
-        <v>0.911371540619546</v>
+        <v>0.897065135127299</v>
       </c>
       <c r="Q14">
-        <v>445.7088312865991</v>
+        <v>1003.002142671691</v>
       </c>
       <c r="R14">
-        <v>445.7088312865991</v>
+        <v>9027.019284045224</v>
       </c>
       <c r="S14">
-        <v>0.2157926509157786</v>
+        <v>0.3580490801364279</v>
       </c>
       <c r="T14">
-        <v>0.2157926509157786</v>
+        <v>0.3580490801364279</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.9012008464664</v>
+        <v>21.77610566666667</v>
       </c>
       <c r="H15">
-        <v>9.9012008464664</v>
+        <v>65.328317</v>
       </c>
       <c r="I15">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="J15">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.51754008604994</v>
+        <v>2.770761666666667</v>
       </c>
       <c r="N15">
-        <v>2.51754008604994</v>
+        <v>8.312284999999999</v>
       </c>
       <c r="O15">
-        <v>0.05096927876232632</v>
+        <v>0.05396367312415441</v>
       </c>
       <c r="P15">
-        <v>0.05096927876232632</v>
+        <v>0.0539636731241544</v>
       </c>
       <c r="Q15">
-        <v>24.92667003101076</v>
+        <v>60.33639883048277</v>
       </c>
       <c r="R15">
-        <v>24.92667003101076</v>
+        <v>543.0275894743449</v>
       </c>
       <c r="S15">
-        <v>0.01206839942786755</v>
+        <v>0.0215387297602916</v>
       </c>
       <c r="T15">
-        <v>0.01206839942786755</v>
+        <v>0.0215387297602916</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.9012008464664</v>
+        <v>21.77610566666667</v>
       </c>
       <c r="H16">
-        <v>9.9012008464664</v>
+        <v>65.328317</v>
       </c>
       <c r="I16">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="J16">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.43893951667141</v>
+        <v>1.802173666666667</v>
       </c>
       <c r="N16">
-        <v>1.43893951667141</v>
+        <v>5.406521</v>
       </c>
       <c r="O16">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="P16">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="Q16">
-        <v>14.24722916048092</v>
+        <v>39.24432419501744</v>
       </c>
       <c r="R16">
-        <v>14.24722916048092</v>
+        <v>353.198917755157</v>
       </c>
       <c r="S16">
-        <v>0.006897882951679353</v>
+        <v>0.01400933615273556</v>
       </c>
       <c r="T16">
-        <v>0.006897882951679353</v>
+        <v>0.01400933615273556</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.9012008464664</v>
+        <v>21.77610566666667</v>
       </c>
       <c r="H17">
-        <v>9.9012008464664</v>
+        <v>65.328317</v>
       </c>
       <c r="I17">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="J17">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.421171105180447</v>
+        <v>0.7122493333333333</v>
       </c>
       <c r="N17">
-        <v>0.421171105180447</v>
+        <v>2.136748</v>
       </c>
       <c r="O17">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="P17">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="Q17">
-        <v>4.170099703119831</v>
+        <v>15.51001674367955</v>
       </c>
       <c r="R17">
-        <v>4.170099703119831</v>
+        <v>139.590150693116</v>
       </c>
       <c r="S17">
-        <v>0.002018979222201438</v>
+        <v>0.005536725189023663</v>
       </c>
       <c r="T17">
-        <v>0.002018979222201438</v>
+        <v>0.005536725189023662</v>
       </c>
     </row>
   </sheetData>
